--- a/Code/Results/Cases/Case_0_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.36037383318255</v>
+        <v>13.57063651909873</v>
       </c>
       <c r="D2">
-        <v>4.745338185084341</v>
+        <v>6.883135427878539</v>
       </c>
       <c r="E2">
-        <v>9.001606859547859</v>
+        <v>14.04898882569214</v>
       </c>
       <c r="F2">
-        <v>32.81803687573695</v>
+        <v>48.34100886830125</v>
       </c>
       <c r="G2">
-        <v>42.84271643868149</v>
+        <v>59.97392342419536</v>
       </c>
       <c r="H2">
-        <v>13.56568856975871</v>
+        <v>22.10904475649088</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.619355380545248</v>
+        <v>11.52380739942606</v>
       </c>
       <c r="K2">
-        <v>24.08641613187699</v>
+        <v>22.83994665585294</v>
       </c>
       <c r="L2">
-        <v>5.377299754437347</v>
+        <v>9.598492697885041</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.961357130008061</v>
+        <v>13.53292697867383</v>
       </c>
       <c r="D3">
-        <v>4.545408338088691</v>
+        <v>6.849936529828728</v>
       </c>
       <c r="E3">
-        <v>8.813440869571858</v>
+        <v>14.05080937376609</v>
       </c>
       <c r="F3">
-        <v>32.37465829282491</v>
+        <v>48.48362694200738</v>
       </c>
       <c r="G3">
-        <v>42.12977206637326</v>
+        <v>60.1672530875631</v>
       </c>
       <c r="H3">
-        <v>13.59454215383627</v>
+        <v>22.19868091358136</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.634485825504001</v>
+        <v>11.5528234621601</v>
       </c>
       <c r="K3">
-        <v>22.58318142254323</v>
+        <v>22.44576138341752</v>
       </c>
       <c r="L3">
-        <v>5.375931050693046</v>
+        <v>9.612206686268324</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.715898812275693</v>
+        <v>13.51255438158723</v>
       </c>
       <c r="D4">
-        <v>4.419231884749462</v>
+        <v>6.829901216823169</v>
       </c>
       <c r="E4">
-        <v>8.700932082454258</v>
+        <v>14.05401963081219</v>
       </c>
       <c r="F4">
-        <v>32.14315997890795</v>
+        <v>48.58467146948104</v>
       </c>
       <c r="G4">
-        <v>41.7566429629013</v>
+        <v>60.30612398497656</v>
       </c>
       <c r="H4">
-        <v>13.62759537808926</v>
+        <v>22.25864897341566</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.647387771847655</v>
+        <v>11.57215446707737</v>
       </c>
       <c r="K4">
-        <v>21.61890893977969</v>
+        <v>22.20396445273511</v>
       </c>
       <c r="L4">
-        <v>5.376611687657466</v>
+        <v>9.621413889922827</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.615870074849846</v>
+        <v>13.50495682638736</v>
       </c>
       <c r="D5">
-        <v>4.367004703824604</v>
+        <v>6.821828827036046</v>
       </c>
       <c r="E5">
-        <v>8.65586781055609</v>
+        <v>14.05585476252507</v>
       </c>
       <c r="F5">
-        <v>32.05867130049911</v>
+        <v>48.62921963216266</v>
       </c>
       <c r="G5">
-        <v>41.62021048413219</v>
+        <v>60.36775126273667</v>
       </c>
       <c r="H5">
-        <v>13.64470175374518</v>
+        <v>22.2843226759032</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.653521689593374</v>
+        <v>11.58041309209699</v>
       </c>
       <c r="K5">
-        <v>21.21571680522719</v>
+        <v>22.10561096013299</v>
       </c>
       <c r="L5">
-        <v>5.377266052719789</v>
+        <v>9.625364174791171</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.599263817414014</v>
+        <v>13.50373793978071</v>
       </c>
       <c r="D6">
-        <v>4.358285189608076</v>
+        <v>6.82049410643333</v>
       </c>
       <c r="E6">
-        <v>8.648432958656983</v>
+        <v>14.05619132905687</v>
       </c>
       <c r="F6">
-        <v>32.04522490686924</v>
+        <v>48.63681994994006</v>
       </c>
       <c r="G6">
-        <v>41.59848005409989</v>
+        <v>60.37828756389474</v>
       </c>
       <c r="H6">
-        <v>13.64775565316829</v>
+        <v>22.28866033075512</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.654592243866103</v>
+        <v>11.58180745048015</v>
       </c>
       <c r="K6">
-        <v>21.14815365892364</v>
+        <v>22.08929393776363</v>
       </c>
       <c r="L6">
-        <v>5.377397323869372</v>
+        <v>9.626032104706777</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.714549639529571</v>
+        <v>13.51244905982467</v>
       </c>
       <c r="D7">
-        <v>4.418530734262348</v>
+        <v>6.829791970805734</v>
       </c>
       <c r="E7">
-        <v>8.700321124641421</v>
+        <v>14.0540422456404</v>
       </c>
       <c r="F7">
-        <v>32.14198119489908</v>
+        <v>48.5852586330023</v>
       </c>
       <c r="G7">
-        <v>41.75474060728779</v>
+        <v>60.30693476743284</v>
       </c>
       <c r="H7">
-        <v>13.62781163905894</v>
+        <v>22.25899021753088</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.647466989018855</v>
+        <v>11.57226430264375</v>
       </c>
       <c r="K7">
-        <v>21.6135125964468</v>
+        <v>22.20263712956537</v>
       </c>
       <c r="L7">
-        <v>5.376618993245282</v>
+        <v>9.621466361461314</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.22295173399615</v>
+        <v>13.55706028276488</v>
       </c>
       <c r="D8">
-        <v>4.677139438373407</v>
+        <v>6.871618700660706</v>
       </c>
       <c r="E8">
-        <v>8.936112694446571</v>
+        <v>14.04918276910868</v>
       </c>
       <c r="F8">
-        <v>32.65647336497531</v>
+        <v>48.38737649114059</v>
       </c>
       <c r="G8">
-        <v>42.58311819295781</v>
+        <v>60.03637775225113</v>
       </c>
       <c r="H8">
-        <v>13.57231932229867</v>
+        <v>22.13892561226485</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.623802976355512</v>
+        <v>11.53349776596814</v>
       </c>
       <c r="K8">
-        <v>23.57673143540195</v>
+        <v>22.70405548101972</v>
       </c>
       <c r="L8">
-        <v>5.376508757849099</v>
+        <v>9.60305825192899</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.21214109853482</v>
+        <v>13.66635762834423</v>
       </c>
       <c r="D9">
-        <v>5.155384340791842</v>
+        <v>6.956212735561886</v>
       </c>
       <c r="E9">
-        <v>9.421600607608283</v>
+        <v>14.05621755630578</v>
       </c>
       <c r="F9">
-        <v>34.00532112375013</v>
+        <v>48.10699244018205</v>
       </c>
       <c r="G9">
-        <v>44.74593028515205</v>
+        <v>59.66729930535205</v>
       </c>
       <c r="H9">
-        <v>13.59546374834387</v>
+        <v>21.94277223528512</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.607585859022853</v>
+        <v>11.46949266321208</v>
       </c>
       <c r="K9">
-        <v>27.13025922524645</v>
+        <v>23.68394400974778</v>
       </c>
       <c r="L9">
-        <v>5.38862447862749</v>
+        <v>9.57318340110306</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.92997135776784</v>
+        <v>13.75957700279564</v>
       </c>
       <c r="D10">
-        <v>5.487404861356406</v>
+        <v>7.01966494668428</v>
       </c>
       <c r="E10">
-        <v>9.791428956651401</v>
+        <v>14.07142570477653</v>
       </c>
       <c r="F10">
-        <v>35.22542913689749</v>
+        <v>47.96758328926384</v>
       </c>
       <c r="G10">
-        <v>46.69544284299778</v>
+        <v>59.49649557265017</v>
       </c>
       <c r="H10">
-        <v>13.70766458418199</v>
+        <v>21.82284086130081</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.616350353015942</v>
+        <v>11.42978668080459</v>
       </c>
       <c r="K10">
-        <v>29.69052612041742</v>
+        <v>24.39496977430714</v>
       </c>
       <c r="L10">
-        <v>5.405438875299471</v>
+        <v>9.555002554527951</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.25411680951986</v>
+        <v>13.80469556325298</v>
       </c>
       <c r="D11">
-        <v>5.634048721916996</v>
+        <v>7.048755349217985</v>
       </c>
       <c r="E11">
-        <v>9.962430569460862</v>
+        <v>14.08050855463736</v>
       </c>
       <c r="F11">
-        <v>35.83481176539041</v>
+        <v>47.91880848796682</v>
       </c>
       <c r="G11">
-        <v>47.66705624171485</v>
+        <v>59.44095610367962</v>
       </c>
       <c r="H11">
-        <v>13.78275361611184</v>
+        <v>21.7735810365708</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.625378408512471</v>
+        <v>11.41331120269168</v>
       </c>
       <c r="K11">
-        <v>30.8029125689768</v>
+        <v>24.71513009310653</v>
       </c>
       <c r="L11">
-        <v>5.414902780068879</v>
+        <v>9.547544386876043</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.37650544793992</v>
+        <v>13.82216186083122</v>
       </c>
       <c r="D12">
-        <v>5.68894048982918</v>
+        <v>7.05979855057573</v>
       </c>
       <c r="E12">
-        <v>10.02758255471677</v>
+        <v>14.08425758110617</v>
       </c>
       <c r="F12">
-        <v>36.07376901083087</v>
+        <v>47.9024581723891</v>
       </c>
       <c r="G12">
-        <v>48.04770195055693</v>
+        <v>59.42313860275837</v>
       </c>
       <c r="H12">
-        <v>13.81493933969459</v>
+        <v>21.75569349373323</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.629572425514672</v>
+        <v>11.40730048322451</v>
       </c>
       <c r="K12">
-        <v>31.21686875724376</v>
+        <v>24.83578538495441</v>
       </c>
       <c r="L12">
-        <v>5.418756350084985</v>
+        <v>9.54483654851165</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.35016276570007</v>
+        <v>13.81838339394651</v>
       </c>
       <c r="D13">
-        <v>5.677147023398261</v>
+        <v>7.057419067929763</v>
       </c>
       <c r="E13">
-        <v>10.01353314582334</v>
+        <v>14.08343642315455</v>
       </c>
       <c r="F13">
-        <v>36.02193438644483</v>
+        <v>47.90588502211626</v>
       </c>
       <c r="G13">
-        <v>47.96514876967222</v>
+        <v>59.42683255842783</v>
       </c>
       <c r="H13">
-        <v>13.80783592779455</v>
+        <v>21.75951175598141</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.628633836435692</v>
+        <v>11.40858485084398</v>
       </c>
       <c r="K13">
-        <v>31.1280356137153</v>
+        <v>24.80982770167976</v>
       </c>
       <c r="L13">
-        <v>5.417914265568292</v>
+        <v>9.545414559266133</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.26419297091454</v>
+        <v>13.80612494739444</v>
       </c>
       <c r="D14">
-        <v>5.638577523366039</v>
+        <v>7.049663362596531</v>
       </c>
       <c r="E14">
-        <v>9.967782668788329</v>
+        <v>14.08081079595375</v>
       </c>
       <c r="F14">
-        <v>35.85430436778546</v>
+        <v>47.917420780487</v>
       </c>
       <c r="G14">
-        <v>47.69811420083233</v>
+        <v>59.43942568233619</v>
       </c>
       <c r="H14">
-        <v>13.78532465113343</v>
+        <v>21.77209403961395</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.625707610020368</v>
+        <v>11.4128121240925</v>
       </c>
       <c r="K14">
-        <v>30.8371134474864</v>
+        <v>24.72506875857264</v>
       </c>
       <c r="L14">
-        <v>5.415214354801615</v>
+        <v>9.547319280765286</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.21148733204764</v>
+        <v>13.79866561385343</v>
       </c>
       <c r="D15">
-        <v>5.61486927820717</v>
+        <v>7.04491617052844</v>
       </c>
       <c r="E15">
-        <v>9.939811071966865</v>
+        <v>14.07924278183885</v>
       </c>
       <c r="F15">
-        <v>35.75270537965237</v>
+        <v>47.92476320286561</v>
       </c>
       <c r="G15">
-        <v>47.53622006897717</v>
+        <v>59.44755868237949</v>
       </c>
       <c r="H15">
-        <v>13.77203327373912</v>
+        <v>21.77990094577362</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.624017750106852</v>
+        <v>11.41543116708781</v>
       </c>
       <c r="K15">
-        <v>30.6579746063342</v>
+        <v>24.67307244372466</v>
       </c>
       <c r="L15">
-        <v>5.413595993610107</v>
+        <v>9.548501125151764</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.90873777375791</v>
+        <v>13.7566822108881</v>
       </c>
       <c r="D16">
-        <v>5.477732131713573</v>
+        <v>7.017767921771711</v>
       </c>
       <c r="E16">
-        <v>9.780309028012281</v>
+        <v>14.07087553351624</v>
       </c>
       <c r="F16">
-        <v>35.18673038215443</v>
+        <v>47.97106671284151</v>
       </c>
       <c r="G16">
-        <v>46.63369586101919</v>
+        <v>59.50057352529049</v>
       </c>
       <c r="H16">
-        <v>13.70326600687628</v>
+        <v>21.8261670750787</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.615865993840139</v>
+        <v>11.43089532444745</v>
       </c>
       <c r="K16">
-        <v>29.61679669904101</v>
+        <v>24.37397087967489</v>
       </c>
       <c r="L16">
-        <v>5.40485764100361</v>
+        <v>9.555506275421441</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.72237980796219</v>
+        <v>13.7316151623892</v>
       </c>
       <c r="D17">
-        <v>5.39246999251343</v>
+        <v>7.001167495014761</v>
       </c>
       <c r="E17">
-        <v>9.683165109562678</v>
+        <v>14.06629573536254</v>
       </c>
       <c r="F17">
-        <v>34.85370906532423</v>
+        <v>48.00323314287289</v>
       </c>
       <c r="G17">
-        <v>46.10210572411167</v>
+        <v>59.53879238983139</v>
       </c>
       <c r="H17">
-        <v>13.66744333083606</v>
+        <v>21.85590974272913</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.612190767989408</v>
+        <v>11.4407885330231</v>
       </c>
       <c r="K17">
-        <v>28.96483729416734</v>
+        <v>24.18955979722945</v>
       </c>
       <c r="L17">
-        <v>5.399967789844618</v>
+        <v>9.560011487390616</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.61496524115686</v>
+        <v>13.71745317012459</v>
       </c>
       <c r="D18">
-        <v>5.343015837794494</v>
+        <v>6.991640921041546</v>
       </c>
       <c r="E18">
-        <v>9.627550282311276</v>
+        <v>14.06386541180393</v>
       </c>
       <c r="F18">
-        <v>34.66725606537272</v>
+        <v>48.02311193055079</v>
       </c>
       <c r="G18">
-        <v>45.80429596112601</v>
+        <v>59.56285916556485</v>
       </c>
       <c r="H18">
-        <v>13.64908434759752</v>
+        <v>21.87351531342712</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.610548098329323</v>
+        <v>11.44662821944766</v>
       </c>
       <c r="K18">
-        <v>28.58490988290799</v>
+        <v>24.08318808503491</v>
       </c>
       <c r="L18">
-        <v>5.397325533009206</v>
+        <v>9.562679256968574</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.57855839777029</v>
+        <v>13.7127023862655</v>
       </c>
       <c r="D19">
-        <v>5.326200813990707</v>
+        <v>6.9884192449134</v>
       </c>
       <c r="E19">
-        <v>9.608764816184777</v>
+        <v>14.06307760771192</v>
       </c>
       <c r="F19">
-        <v>34.6049895250502</v>
+        <v>48.03007869181609</v>
       </c>
       <c r="G19">
-        <v>45.70481191118017</v>
+        <v>59.57136486772217</v>
       </c>
       <c r="H19">
-        <v>13.64324521904565</v>
+        <v>21.87956172219614</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.61007138755168</v>
+        <v>11.44863109267525</v>
       </c>
       <c r="K19">
-        <v>28.45541805109698</v>
+        <v>24.04712377686146</v>
       </c>
       <c r="L19">
-        <v>5.396459897799045</v>
+        <v>9.563595667840284</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.74224152926637</v>
+        <v>13.73425717140388</v>
       </c>
       <c r="D20">
-        <v>5.401589178028833</v>
+        <v>7.002932445388156</v>
       </c>
       <c r="E20">
-        <v>9.693479386785263</v>
+        <v>14.06676217634136</v>
       </c>
       <c r="F20">
-        <v>34.88863004409023</v>
+        <v>47.99966630057245</v>
       </c>
       <c r="G20">
-        <v>46.15786820521046</v>
+        <v>59.53450800415646</v>
       </c>
       <c r="H20">
-        <v>13.67102225718649</v>
+        <v>21.85269197409642</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.61253288135369</v>
+        <v>11.43971992455333</v>
       </c>
       <c r="K20">
-        <v>29.03474885318605</v>
+        <v>24.2092228761961</v>
       </c>
       <c r="L20">
-        <v>5.400470641008444</v>
+        <v>9.559523986378419</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.28945409862593</v>
+        <v>13.80971528948004</v>
       </c>
       <c r="D21">
-        <v>5.6499236850679</v>
+        <v>7.051940701649665</v>
       </c>
       <c r="E21">
-        <v>9.981209866814968</v>
+        <v>14.08157361981617</v>
       </c>
       <c r="F21">
-        <v>35.90331573962843</v>
+        <v>47.91397481584328</v>
       </c>
       <c r="G21">
-        <v>47.77619924285003</v>
+        <v>59.43563933885351</v>
       </c>
       <c r="H21">
-        <v>13.79183255313461</v>
+        <v>21.76837749240164</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.626545648329543</v>
+        <v>11.4115642786993</v>
       </c>
       <c r="K21">
-        <v>30.92275990115149</v>
+        <v>24.74998116927765</v>
       </c>
       <c r="L21">
-        <v>5.415999987159759</v>
+        <v>9.546756661908953</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.64501138313347</v>
+        <v>13.86124691824871</v>
       </c>
       <c r="D22">
-        <v>5.808501594473643</v>
+        <v>7.084127129070201</v>
       </c>
       <c r="E22">
-        <v>10.17158099912793</v>
+        <v>14.09305711772098</v>
       </c>
       <c r="F22">
-        <v>36.61444813900114</v>
+        <v>47.87033112158282</v>
       </c>
       <c r="G22">
-        <v>48.90826798588898</v>
+        <v>59.3897683008039</v>
       </c>
       <c r="H22">
-        <v>13.89279936435309</v>
+        <v>21.71774041218928</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.640249565926195</v>
+        <v>11.39449297333941</v>
       </c>
       <c r="K22">
-        <v>32.11437766324215</v>
+        <v>25.09995591400083</v>
       </c>
       <c r="L22">
-        <v>5.427726660060697</v>
+        <v>9.539090799217162</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.45543233553213</v>
+        <v>13.83354399335233</v>
       </c>
       <c r="D23">
-        <v>5.724206670256522</v>
+        <v>7.066935999400268</v>
       </c>
       <c r="E23">
-        <v>10.0697615770872</v>
+        <v>14.08676376377073</v>
       </c>
       <c r="F23">
-        <v>36.23038069424982</v>
+        <v>47.89248923448676</v>
       </c>
       <c r="G23">
-        <v>48.29707084783981</v>
+        <v>59.41252682692516</v>
       </c>
       <c r="H23">
-        <v>13.83679718426887</v>
+        <v>21.74435619837719</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.632501718419224</v>
+        <v>11.40348255797683</v>
       </c>
       <c r="K23">
-        <v>31.48217433677242</v>
+        <v>24.91351754395052</v>
       </c>
       <c r="L23">
-        <v>5.421320429975649</v>
+        <v>9.54312028454231</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.73326289998638</v>
+        <v>13.73306194165199</v>
       </c>
       <c r="D24">
-        <v>5.397467751079386</v>
+        <v>7.002134457273844</v>
       </c>
       <c r="E24">
-        <v>9.688815571481618</v>
+        <v>14.06655066698926</v>
       </c>
       <c r="F24">
-        <v>34.87282670744204</v>
+        <v>48.0012745541115</v>
       </c>
       <c r="G24">
-        <v>46.13263370511159</v>
+        <v>59.53643845361059</v>
       </c>
       <c r="H24">
-        <v>13.66939728212144</v>
+        <v>21.85414515107446</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.612376750881115</v>
+        <v>11.44020256913596</v>
       </c>
       <c r="K24">
-        <v>29.00315776309998</v>
+        <v>24.20033428408997</v>
       </c>
       <c r="L24">
-        <v>5.400242776304893</v>
+        <v>9.559744143645414</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.94587620641644</v>
+        <v>13.6344909831952</v>
       </c>
       <c r="D25">
-        <v>5.029309526565704</v>
+        <v>6.933079720708851</v>
       </c>
       <c r="E25">
-        <v>9.287902535571716</v>
+        <v>14.05254648179361</v>
       </c>
       <c r="F25">
-        <v>33.601728721779</v>
+        <v>48.1712157705357</v>
       </c>
       <c r="G25">
-        <v>44.09973580662841</v>
+        <v>59.74965228163482</v>
       </c>
       <c r="H25">
-        <v>13.57358938731795</v>
+        <v>21.99160673902803</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.608516309726167</v>
+        <v>11.48552204045525</v>
       </c>
       <c r="K25">
-        <v>26.17960834844235</v>
+        <v>23.41994033252323</v>
       </c>
       <c r="L25">
-        <v>5.383987610861392</v>
+        <v>9.580601740683544</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.57063651909873</v>
+        <v>10.36037383318239</v>
       </c>
       <c r="D2">
-        <v>6.883135427878539</v>
+        <v>4.745338185084178</v>
       </c>
       <c r="E2">
-        <v>14.04898882569214</v>
+        <v>9.001606859547735</v>
       </c>
       <c r="F2">
-        <v>48.34100886830125</v>
+        <v>32.81803687573687</v>
       </c>
       <c r="G2">
-        <v>59.97392342419536</v>
+        <v>42.8427164386816</v>
       </c>
       <c r="H2">
-        <v>22.10904475649088</v>
+        <v>13.5656885697587</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.52380739942606</v>
+        <v>6.619355380545247</v>
       </c>
       <c r="K2">
-        <v>22.83994665585294</v>
+        <v>24.086416131877</v>
       </c>
       <c r="L2">
-        <v>9.598492697885041</v>
+        <v>5.377299754437287</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.53292697867383</v>
+        <v>9.961357130008132</v>
       </c>
       <c r="D3">
-        <v>6.849936529828728</v>
+        <v>4.545408338088612</v>
       </c>
       <c r="E3">
-        <v>14.05080937376609</v>
+        <v>8.813440869571949</v>
       </c>
       <c r="F3">
-        <v>48.48362694200738</v>
+        <v>32.37465829282513</v>
       </c>
       <c r="G3">
-        <v>60.1672530875631</v>
+        <v>42.12977206637368</v>
       </c>
       <c r="H3">
-        <v>22.19868091358136</v>
+        <v>13.59454215383642</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.5528234621601</v>
+        <v>6.634485825504057</v>
       </c>
       <c r="K3">
-        <v>22.44576138341752</v>
+        <v>22.58318142254325</v>
       </c>
       <c r="L3">
-        <v>9.612206686268324</v>
+        <v>5.375931050693104</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.51255438158723</v>
+        <v>9.715898812275579</v>
       </c>
       <c r="D4">
-        <v>6.829901216823169</v>
+        <v>4.419231884749395</v>
       </c>
       <c r="E4">
-        <v>14.05401963081219</v>
+        <v>8.700932082454271</v>
       </c>
       <c r="F4">
-        <v>48.58467146948104</v>
+        <v>32.14315997890846</v>
       </c>
       <c r="G4">
-        <v>60.30612398497656</v>
+        <v>41.75664296290205</v>
       </c>
       <c r="H4">
-        <v>22.25864897341566</v>
+        <v>13.62759537808943</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.57215446707737</v>
+        <v>6.647387771847596</v>
       </c>
       <c r="K4">
-        <v>22.20396445273511</v>
+        <v>21.61890893977974</v>
       </c>
       <c r="L4">
-        <v>9.621413889922827</v>
+        <v>5.376611687657438</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.50495682638736</v>
+        <v>9.615870074849907</v>
       </c>
       <c r="D5">
-        <v>6.821828827036046</v>
+        <v>4.367004703824529</v>
       </c>
       <c r="E5">
-        <v>14.05585476252507</v>
+        <v>8.655867810556002</v>
       </c>
       <c r="F5">
-        <v>48.62921963216266</v>
+        <v>32.05867130049916</v>
       </c>
       <c r="G5">
-        <v>60.36775126273667</v>
+        <v>41.62021048413248</v>
       </c>
       <c r="H5">
-        <v>22.2843226759032</v>
+        <v>13.64470175374518</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.58041309209699</v>
+        <v>6.653521689593285</v>
       </c>
       <c r="K5">
-        <v>22.10561096013299</v>
+        <v>21.21571680522722</v>
       </c>
       <c r="L5">
-        <v>9.625364174791171</v>
+        <v>5.377266052719738</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.50373793978071</v>
+        <v>9.599263817413961</v>
       </c>
       <c r="D6">
-        <v>6.82049410643333</v>
+        <v>4.358285189608006</v>
       </c>
       <c r="E6">
-        <v>14.05619132905687</v>
+        <v>8.648432958656976</v>
       </c>
       <c r="F6">
-        <v>48.63681994994006</v>
+        <v>32.04522490686919</v>
       </c>
       <c r="G6">
-        <v>60.37828756389474</v>
+        <v>41.59848005409988</v>
       </c>
       <c r="H6">
-        <v>22.28866033075512</v>
+        <v>13.64775565316824</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.58180745048015</v>
+        <v>6.654592243866158</v>
       </c>
       <c r="K6">
-        <v>22.08929393776363</v>
+        <v>21.14815365892366</v>
       </c>
       <c r="L6">
-        <v>9.626032104706777</v>
+        <v>5.377397323869426</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.51244905982467</v>
+        <v>9.714549639529485</v>
       </c>
       <c r="D7">
-        <v>6.829791970805734</v>
+        <v>4.418530734262327</v>
       </c>
       <c r="E7">
-        <v>14.0540422456404</v>
+        <v>8.700321124641428</v>
       </c>
       <c r="F7">
-        <v>48.5852586330023</v>
+        <v>32.1419811948988</v>
       </c>
       <c r="G7">
-        <v>60.30693476743284</v>
+        <v>41.75474060728755</v>
       </c>
       <c r="H7">
-        <v>22.25899021753088</v>
+        <v>13.62781163905879</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.57226430264375</v>
+        <v>6.647466989018835</v>
       </c>
       <c r="K7">
-        <v>22.20263712956537</v>
+        <v>21.61351259644675</v>
       </c>
       <c r="L7">
-        <v>9.621466361461314</v>
+        <v>5.376618993245307</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.55706028276488</v>
+        <v>10.22295173399625</v>
       </c>
       <c r="D8">
-        <v>6.871618700660706</v>
+        <v>4.67713943837333</v>
       </c>
       <c r="E8">
-        <v>14.04918276910868</v>
+        <v>8.936112694446569</v>
       </c>
       <c r="F8">
-        <v>48.38737649114059</v>
+        <v>32.65647336497554</v>
       </c>
       <c r="G8">
-        <v>60.03637775225113</v>
+        <v>42.58311819295801</v>
       </c>
       <c r="H8">
-        <v>22.13892561226485</v>
+        <v>13.57231932229879</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.53349776596814</v>
+        <v>6.623802976355534</v>
       </c>
       <c r="K8">
-        <v>22.70405548101972</v>
+        <v>23.57673143540195</v>
       </c>
       <c r="L8">
-        <v>9.60305825192899</v>
+        <v>5.376508757849075</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.66635762834423</v>
+        <v>11.21214109853478</v>
       </c>
       <c r="D9">
-        <v>6.956212735561886</v>
+        <v>5.155384340791749</v>
       </c>
       <c r="E9">
-        <v>14.05621755630578</v>
+        <v>9.421600607608244</v>
       </c>
       <c r="F9">
-        <v>48.10699244018205</v>
+        <v>34.00532112375012</v>
       </c>
       <c r="G9">
-        <v>59.66729930535205</v>
+        <v>44.74593028515208</v>
       </c>
       <c r="H9">
-        <v>21.94277223528512</v>
+        <v>13.59546374834386</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.46949266321208</v>
+        <v>6.60758585902285</v>
       </c>
       <c r="K9">
-        <v>23.68394400974778</v>
+        <v>27.13025922524644</v>
       </c>
       <c r="L9">
-        <v>9.57318340110306</v>
+        <v>5.388624478627461</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.75957700279564</v>
+        <v>11.92997135776781</v>
       </c>
       <c r="D10">
-        <v>7.01966494668428</v>
+        <v>5.487404861356328</v>
       </c>
       <c r="E10">
-        <v>14.07142570477653</v>
+        <v>9.791428956651368</v>
       </c>
       <c r="F10">
-        <v>47.96758328926384</v>
+        <v>35.22542913689735</v>
       </c>
       <c r="G10">
-        <v>59.49649557265017</v>
+        <v>46.69544284299761</v>
       </c>
       <c r="H10">
-        <v>21.82284086130081</v>
+        <v>13.70766458418187</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.42978668080459</v>
+        <v>6.616350353015922</v>
       </c>
       <c r="K10">
-        <v>24.39496977430714</v>
+        <v>29.6905261204175</v>
       </c>
       <c r="L10">
-        <v>9.555002554527951</v>
+        <v>5.405438875299474</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.80469556325298</v>
+        <v>12.2541168095199</v>
       </c>
       <c r="D11">
-        <v>7.048755349217985</v>
+        <v>5.634048721916902</v>
       </c>
       <c r="E11">
-        <v>14.08050855463736</v>
+        <v>9.962430569460823</v>
       </c>
       <c r="F11">
-        <v>47.91880848796682</v>
+        <v>35.83481176539037</v>
       </c>
       <c r="G11">
-        <v>59.44095610367962</v>
+        <v>47.66705624171488</v>
       </c>
       <c r="H11">
-        <v>21.7735810365708</v>
+        <v>13.78275361611184</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.41331120269168</v>
+        <v>6.625378408512478</v>
       </c>
       <c r="K11">
-        <v>24.71513009310653</v>
+        <v>30.80291256897684</v>
       </c>
       <c r="L11">
-        <v>9.547544386876043</v>
+        <v>5.414902780068825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.82216186083122</v>
+        <v>12.37650544793997</v>
       </c>
       <c r="D12">
-        <v>7.05979855057573</v>
+        <v>5.688940489829251</v>
       </c>
       <c r="E12">
-        <v>14.08425758110617</v>
+        <v>10.0275825547168</v>
       </c>
       <c r="F12">
-        <v>47.9024581723891</v>
+        <v>36.07376901083088</v>
       </c>
       <c r="G12">
-        <v>59.42313860275837</v>
+        <v>48.04770195055684</v>
       </c>
       <c r="H12">
-        <v>21.75569349373323</v>
+        <v>13.81493933969461</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.40730048322451</v>
+        <v>6.629572425514617</v>
       </c>
       <c r="K12">
-        <v>24.83578538495441</v>
+        <v>31.21686875724377</v>
       </c>
       <c r="L12">
-        <v>9.54483654851165</v>
+        <v>5.418756350084919</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.81838339394651</v>
+        <v>12.35016276570009</v>
       </c>
       <c r="D13">
-        <v>7.057419067929763</v>
+        <v>5.677147023398263</v>
       </c>
       <c r="E13">
-        <v>14.08343642315455</v>
+        <v>10.01353314582343</v>
       </c>
       <c r="F13">
-        <v>47.90588502211626</v>
+        <v>36.02193438644486</v>
       </c>
       <c r="G13">
-        <v>59.42683255842783</v>
+        <v>47.96514876967227</v>
       </c>
       <c r="H13">
-        <v>21.75951175598141</v>
+        <v>13.80783592779466</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.40858485084398</v>
+        <v>6.628633836435725</v>
       </c>
       <c r="K13">
-        <v>24.80982770167976</v>
+        <v>31.12803561371524</v>
       </c>
       <c r="L13">
-        <v>9.545414559266133</v>
+        <v>5.417914265568244</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.80612494739444</v>
+        <v>12.26419297091461</v>
       </c>
       <c r="D14">
-        <v>7.049663362596531</v>
+        <v>5.63857752336615</v>
       </c>
       <c r="E14">
-        <v>14.08081079595375</v>
+        <v>9.967782668788356</v>
       </c>
       <c r="F14">
-        <v>47.917420780487</v>
+        <v>35.85430436778544</v>
       </c>
       <c r="G14">
-        <v>59.43942568233619</v>
+        <v>47.69811420083224</v>
       </c>
       <c r="H14">
-        <v>21.77209403961395</v>
+        <v>13.7853246511334</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.4128121240925</v>
+        <v>6.625707610020315</v>
       </c>
       <c r="K14">
-        <v>24.72506875857264</v>
+        <v>30.83711344748644</v>
       </c>
       <c r="L14">
-        <v>9.547319280765286</v>
+        <v>5.415214354801579</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.79866561385343</v>
+        <v>12.21148733204758</v>
       </c>
       <c r="D15">
-        <v>7.04491617052844</v>
+        <v>5.614869278207168</v>
       </c>
       <c r="E15">
-        <v>14.07924278183885</v>
+        <v>9.939811071966853</v>
       </c>
       <c r="F15">
-        <v>47.92476320286561</v>
+        <v>35.75270537965233</v>
       </c>
       <c r="G15">
-        <v>59.44755868237949</v>
+        <v>47.53622006897714</v>
       </c>
       <c r="H15">
-        <v>21.77990094577362</v>
+        <v>13.77203327373908</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.41543116708781</v>
+        <v>6.624017750106828</v>
       </c>
       <c r="K15">
-        <v>24.67307244372466</v>
+        <v>30.65797460633424</v>
       </c>
       <c r="L15">
-        <v>9.548501125151764</v>
+        <v>5.413595993610156</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.7566822108881</v>
+        <v>11.90873777375788</v>
       </c>
       <c r="D16">
-        <v>7.017767921771711</v>
+        <v>5.477732131713589</v>
       </c>
       <c r="E16">
-        <v>14.07087553351624</v>
+        <v>9.780309028012301</v>
       </c>
       <c r="F16">
-        <v>47.97106671284151</v>
+        <v>35.18673038215422</v>
       </c>
       <c r="G16">
-        <v>59.50057352529049</v>
+        <v>46.63369586101893</v>
       </c>
       <c r="H16">
-        <v>21.8261670750787</v>
+        <v>13.70326600687613</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.43089532444745</v>
+        <v>6.615865993840184</v>
       </c>
       <c r="K16">
-        <v>24.37397087967489</v>
+        <v>29.61679669904107</v>
       </c>
       <c r="L16">
-        <v>9.555506275421441</v>
+        <v>5.404857641003534</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.7316151623892</v>
+        <v>11.72237980796223</v>
       </c>
       <c r="D17">
-        <v>7.001167495014761</v>
+        <v>5.392469992513444</v>
       </c>
       <c r="E17">
-        <v>14.06629573536254</v>
+        <v>9.683165109562625</v>
       </c>
       <c r="F17">
-        <v>48.00323314287289</v>
+        <v>34.85370906532416</v>
       </c>
       <c r="G17">
-        <v>59.53879238983139</v>
+        <v>46.10210572411157</v>
       </c>
       <c r="H17">
-        <v>21.85590974272913</v>
+        <v>13.66744333083597</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.4407885330231</v>
+        <v>6.612190767989309</v>
       </c>
       <c r="K17">
-        <v>24.18955979722945</v>
+        <v>28.96483729416734</v>
       </c>
       <c r="L17">
-        <v>9.560011487390616</v>
+        <v>5.39996778984451</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.71745317012459</v>
+        <v>11.61496524115687</v>
       </c>
       <c r="D18">
-        <v>6.991640921041546</v>
+        <v>5.34301583779455</v>
       </c>
       <c r="E18">
-        <v>14.06386541180393</v>
+        <v>9.627550282311267</v>
       </c>
       <c r="F18">
-        <v>48.02311193055079</v>
+        <v>34.66725606537273</v>
       </c>
       <c r="G18">
-        <v>59.56285916556485</v>
+        <v>45.80429596112599</v>
       </c>
       <c r="H18">
-        <v>21.87351531342712</v>
+        <v>13.64908434759749</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.44662821944766</v>
+        <v>6.6105480983293</v>
       </c>
       <c r="K18">
-        <v>24.08318808503491</v>
+        <v>28.58490988290803</v>
       </c>
       <c r="L18">
-        <v>9.562679256968574</v>
+        <v>5.397325533009259</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.7127023862655</v>
+        <v>11.57855839777027</v>
       </c>
       <c r="D19">
-        <v>6.9884192449134</v>
+        <v>5.326200813990692</v>
       </c>
       <c r="E19">
-        <v>14.06307760771192</v>
+        <v>9.60876481618471</v>
       </c>
       <c r="F19">
-        <v>48.03007869181609</v>
+        <v>34.60498952504992</v>
       </c>
       <c r="G19">
-        <v>59.57136486772217</v>
+        <v>45.70481191117977</v>
       </c>
       <c r="H19">
-        <v>21.87956172219614</v>
+        <v>13.64324521904556</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.44863109267525</v>
+        <v>6.610071387551604</v>
       </c>
       <c r="K19">
-        <v>24.04712377686146</v>
+        <v>28.45541805109704</v>
       </c>
       <c r="L19">
-        <v>9.563595667840284</v>
+        <v>5.396459897798965</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.73425717140388</v>
+        <v>11.74224152926634</v>
       </c>
       <c r="D20">
-        <v>7.002932445388156</v>
+        <v>5.401589178028846</v>
       </c>
       <c r="E20">
-        <v>14.06676217634136</v>
+        <v>9.693479386785238</v>
       </c>
       <c r="F20">
-        <v>47.99966630057245</v>
+        <v>34.88863004409013</v>
       </c>
       <c r="G20">
-        <v>59.53450800415646</v>
+        <v>46.15786820521038</v>
       </c>
       <c r="H20">
-        <v>21.85269197409642</v>
+        <v>13.67102225718643</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.43971992455333</v>
+        <v>6.612532881353641</v>
       </c>
       <c r="K20">
-        <v>24.2092228761961</v>
+        <v>29.03474885318605</v>
       </c>
       <c r="L20">
-        <v>9.559523986378419</v>
+        <v>5.400470641008392</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.80971528948004</v>
+        <v>12.28945409862581</v>
       </c>
       <c r="D21">
-        <v>7.051940701649665</v>
+        <v>5.649923685067813</v>
       </c>
       <c r="E21">
-        <v>14.08157361981617</v>
+        <v>9.981209866814886</v>
       </c>
       <c r="F21">
-        <v>47.91397481584328</v>
+        <v>35.90331573962844</v>
       </c>
       <c r="G21">
-        <v>59.43563933885351</v>
+        <v>47.77619924285016</v>
       </c>
       <c r="H21">
-        <v>21.76837749240164</v>
+        <v>13.7918325531346</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.4115642786993</v>
+        <v>6.626545648329501</v>
       </c>
       <c r="K21">
-        <v>24.74998116927765</v>
+        <v>30.9227599011515</v>
       </c>
       <c r="L21">
-        <v>9.546756661908953</v>
+        <v>5.415999987159787</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.86124691824871</v>
+        <v>12.64501138313352</v>
       </c>
       <c r="D22">
-        <v>7.084127129070201</v>
+        <v>5.808501594473651</v>
       </c>
       <c r="E22">
-        <v>14.09305711772098</v>
+        <v>10.17158099912802</v>
       </c>
       <c r="F22">
-        <v>47.87033112158282</v>
+        <v>36.6144481390013</v>
       </c>
       <c r="G22">
-        <v>59.3897683008039</v>
+        <v>48.90826798588912</v>
       </c>
       <c r="H22">
-        <v>21.71774041218928</v>
+        <v>13.89279936435321</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.39449297333941</v>
+        <v>6.640249565926319</v>
       </c>
       <c r="K22">
-        <v>25.09995591400083</v>
+        <v>32.11437766324205</v>
       </c>
       <c r="L22">
-        <v>9.539090799217162</v>
+        <v>5.427726660060745</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.83354399335233</v>
+        <v>12.45543233553213</v>
       </c>
       <c r="D23">
-        <v>7.066935999400268</v>
+        <v>5.724206670256458</v>
       </c>
       <c r="E23">
-        <v>14.08676376377073</v>
+        <v>10.06976157708724</v>
       </c>
       <c r="F23">
-        <v>47.89248923448676</v>
+        <v>36.23038069424979</v>
       </c>
       <c r="G23">
-        <v>59.41252682692516</v>
+        <v>48.29707084783975</v>
       </c>
       <c r="H23">
-        <v>21.74435619837719</v>
+        <v>13.83679718426885</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.40348255797683</v>
+        <v>6.632501718419253</v>
       </c>
       <c r="K23">
-        <v>24.91351754395052</v>
+        <v>31.48217433677243</v>
       </c>
       <c r="L23">
-        <v>9.54312028454231</v>
+        <v>5.421320429975649</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.73306194165199</v>
+        <v>11.73326289998641</v>
       </c>
       <c r="D24">
-        <v>7.002134457273844</v>
+        <v>5.397467751079323</v>
       </c>
       <c r="E24">
-        <v>14.06655066698926</v>
+        <v>9.688815571481593</v>
       </c>
       <c r="F24">
-        <v>48.0012745541115</v>
+        <v>34.8728267074422</v>
       </c>
       <c r="G24">
-        <v>59.53643845361059</v>
+        <v>46.13263370511193</v>
       </c>
       <c r="H24">
-        <v>21.85414515107446</v>
+        <v>13.66939728212154</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.44020256913596</v>
+        <v>6.612376750881177</v>
       </c>
       <c r="K24">
-        <v>24.20033428408997</v>
+        <v>29.00315776309993</v>
       </c>
       <c r="L24">
-        <v>9.559744143645414</v>
+        <v>5.400242776304863</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.6344909831952</v>
+        <v>10.94587620641645</v>
       </c>
       <c r="D25">
-        <v>6.933079720708851</v>
+        <v>5.029309526565697</v>
       </c>
       <c r="E25">
-        <v>14.05254648179361</v>
+        <v>9.287902535571696</v>
       </c>
       <c r="F25">
-        <v>48.1712157705357</v>
+        <v>33.60172872177927</v>
       </c>
       <c r="G25">
-        <v>59.74965228163482</v>
+        <v>44.09973580662886</v>
       </c>
       <c r="H25">
-        <v>21.99160673902803</v>
+        <v>13.57358938731807</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.48552204045525</v>
+        <v>6.608516309726157</v>
       </c>
       <c r="K25">
-        <v>23.41994033252323</v>
+        <v>26.17960834844234</v>
       </c>
       <c r="L25">
-        <v>9.580601740683544</v>
+        <v>5.383987610861415</v>
       </c>
       <c r="M25">
         <v>0</v>
